--- a/Excel/demo (4).xlsx
+++ b/Excel/demo (4).xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:D8"/>
+  <dimension ref="A3:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,49 @@
         <v>40.99980926513672</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>name of file (only if starting new)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Num</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Bottom</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>22.46294212341309</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.465182065963745</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.99776077270508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
